--- a/nielsen_processing/result_transposed_impulse.xlsx
+++ b/nielsen_processing/result_transposed_impulse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abeurope-my.sharepoint.com/personal/mattias_mutso_externi_cz/Documents/Documents/AsahiUK_MMM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abeurope-my.sharepoint.com/personal/mattias_mutso_externi_cz/Documents/Documents/AsahiUK_MMM/nielsen_processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{50157A9B-C33A-46F4-AD77-774AAE3AC994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87FB3268-67CC-458A-A9BF-95266799E365}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="14_{50157A9B-C33A-46F4-AD77-774AAE3AC994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E445B995-02C4-41BD-BE14-356ED5091799}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="30984" windowHeight="16944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="impulse" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="429">
   <si>
     <t>SKU</t>
   </si>
@@ -1309,13 +1309,20 @@
   </si>
   <si>
     <t>disc_impulse_peroni_can_440_ml_4pack</t>
+  </si>
+  <si>
+    <t>single</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1334,6 +1341,13 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1375,10 +1389,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1389,8 +1404,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1694,18 +1711,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D359"/>
+  <dimension ref="A1:L359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.1796875" customWidth="1"/>
+    <col min="1" max="1" width="57.21875" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1719,7 +1738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1733,7 +1752,7 @@
         <v>55770221.942407846</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1747,7 +1766,7 @@
         <v>46465916.876788437</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1761,7 +1780,7 @@
         <v>20545513.967246529</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1775,7 +1794,7 @@
         <v>18523307.889140431</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1789,7 +1808,7 @@
         <v>17452842.474384312</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1803,7 +1822,7 @@
         <v>16298000.020153999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1817,7 +1836,7 @@
         <v>15711452.693611151</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1831,7 +1850,7 @@
         <v>15571942.725438589</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1845,7 +1864,7 @@
         <v>15169921.97796518</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1859,7 +1878,7 @@
         <v>11053440.193761891</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1873,7 +1892,7 @@
         <v>9684781.2866067886</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1887,7 +1906,7 @@
         <v>9369065.4437541962</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1901,7 +1920,7 @@
         <v>8103598.0029461384</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1915,7 +1934,7 @@
         <v>7529325.2787940502</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1929,7 +1948,7 @@
         <v>7324011.121209383</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1943,7 +1962,7 @@
         <v>7202828.4669683278</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1957,7 +1976,7 @@
         <v>7120992.3474137187</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1971,7 +1990,7 @@
         <v>7119124.2448277473</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1985,7 +2004,7 @@
         <v>6722439.5035983324</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1999,7 +2018,7 @@
         <v>6363514.15979743</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2013,7 +2032,7 @@
         <v>6201940.5854701996</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2027,7 +2046,7 @@
         <v>6096517.5928940773</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2041,7 +2060,7 @@
         <v>6035558.6845397949</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2055,7 +2074,7 @@
         <v>5933770.7454748154</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2069,7 +2088,7 @@
         <v>5878216.1116979718</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2083,7 +2102,7 @@
         <v>5692796.0237360001</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2097,7 +2116,7 @@
         <v>5340665.4770812988</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -2111,7 +2130,7 @@
         <v>4818338.4539327621</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2125,7 +2144,7 @@
         <v>4764020.6969067454</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2139,7 +2158,7 @@
         <v>4670307.3344278336</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -2153,7 +2172,7 @@
         <v>4647531.1629170775</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2167,7 +2186,7 @@
         <v>4546399.7313151956</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2181,7 +2200,7 @@
         <v>4532821.2478837967</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2195,7 +2214,7 @@
         <v>4467090.9366878867</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2209,7 +2228,7 @@
         <v>4308772.892416954</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -2223,7 +2242,7 @@
         <v>4298816.374599576</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2237,7 +2256,7 @@
         <v>4014875.6533540492</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2251,7 +2270,7 @@
         <v>3644152.6602848768</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2265,7 +2284,7 @@
         <v>3510798.771075726</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2279,7 +2298,7 @@
         <v>3423103.6741142268</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
@@ -2293,7 +2312,7 @@
         <v>3305207.2508635521</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2307,7 +2326,7 @@
         <v>2973764.1534481049</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2321,7 +2340,7 @@
         <v>2957981.9302036762</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -2335,7 +2354,7 @@
         <v>2942096.768611908</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -2349,7 +2368,7 @@
         <v>2942075.047362328</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2363,7 +2382,7 @@
         <v>2903109.3930103779</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -2377,7 +2396,7 @@
         <v>2848607.1534585948</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -2391,7 +2410,7 @@
         <v>2323516.9753360748</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -2405,7 +2424,7 @@
         <v>2262029.680346698</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -2419,7 +2438,7 @@
         <v>2075991.335204124</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -2433,7 +2452,7 @@
         <v>2074676.037470818</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
@@ -2447,7 +2466,7 @@
         <v>1916634.4417220349</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>56</v>
       </c>
@@ -2461,7 +2480,7 @@
         <v>1842291.437110662</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -2475,7 +2494,7 @@
         <v>1746241.2782592771</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -2489,7 +2508,7 @@
         <v>1727411.0073437691</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -2503,7 +2522,7 @@
         <v>1606128.7592449191</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -2517,7 +2536,7 @@
         <v>1587152.5007829671</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -2531,7 +2550,7 @@
         <v>1360238.5641064639</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -2545,7 +2564,7 @@
         <v>1356025.6505455079</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -2559,7 +2578,7 @@
         <v>1347930.7797966001</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
@@ -2573,7 +2592,7 @@
         <v>1292023.522026062</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2587,7 +2606,7 @@
         <v>1258540.822709084</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -2601,7 +2620,7 @@
         <v>1185032.505872726</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -2615,7 +2634,7 @@
         <v>1175199.8911437991</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -2629,7 +2648,7 @@
         <v>1108867.00885129</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2643,7 +2662,7 @@
         <v>1099550.015556335</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -2657,7 +2676,7 @@
         <v>1076717.0139200089</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -2671,7 +2690,7 @@
         <v>1034052.3911871311</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>72</v>
       </c>
@@ -2685,7 +2704,7 @@
         <v>1031059.812595367</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -2699,7 +2718,7 @@
         <v>972365.13208323717</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -2713,7 +2732,7 @@
         <v>963119.04015824199</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -2727,7 +2746,7 @@
         <v>945146.6638250351</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -2741,7 +2760,7 @@
         <v>932907.50855284929</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>77</v>
       </c>
@@ -2755,7 +2774,7 @@
         <v>921912.79785513878</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -2769,7 +2788,7 @@
         <v>913096.83284109831</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -2783,7 +2802,7 @@
         <v>884824.06703948975</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>80</v>
       </c>
@@ -2797,7 +2816,7 @@
         <v>726013.85114991665</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -2811,7 +2830,7 @@
         <v>721838.46262562275</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -2825,7 +2844,7 @@
         <v>706080.75384747982</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -2839,7 +2858,7 @@
         <v>704008.55095672607</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -2853,7 +2872,7 @@
         <v>639280.54974770546</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -2867,7 +2886,7 @@
         <v>634294.781686306</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2900,7 @@
         <v>598789.01707708836</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -2895,7 +2914,7 @@
         <v>578574.20780277252</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -2909,7 +2928,7 @@
         <v>535716.75380122662</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -2923,7 +2942,7 @@
         <v>532673.87409162521</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>90</v>
       </c>
@@ -2937,7 +2956,7 @@
         <v>521293.93265962601</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -2951,7 +2970,7 @@
         <v>509071.56977510452</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -2965,7 +2984,7 @@
         <v>472409.81228721142</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -2979,7 +2998,7 @@
         <v>468073.24111676222</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -2993,7 +3012,7 @@
         <v>454908.04010438919</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -3007,7 +3026,7 @@
         <v>422291.95117592812</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -3021,7 +3040,7 @@
         <v>416766.37711501122</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -3035,7 +3054,7 @@
         <v>415297.82383346558</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -3049,7 +3068,7 @@
         <v>398644.88916873932</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -3063,7 +3082,7 @@
         <v>365639.18351626402</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -3077,7 +3096,7 @@
         <v>363408.12446880341</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -3091,7 +3110,7 @@
         <v>362678.99378323549</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -3105,7 +3124,7 @@
         <v>353255.75891113281</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>103</v>
       </c>
@@ -3119,7 +3138,7 @@
         <v>349899.78330782062</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -3133,7 +3152,7 @@
         <v>348581.51693034172</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -3147,7 +3166,7 @@
         <v>338242.73083853722</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -3161,7 +3180,7 @@
         <v>329732.35342788702</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -3175,7 +3194,7 @@
         <v>320692.09221452469</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -3189,7 +3208,7 @@
         <v>302766.62165164948</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -3203,7 +3222,7 @@
         <v>294651.38098621368</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -3217,7 +3236,7 @@
         <v>290389.87158495188</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -3231,7 +3250,7 @@
         <v>286872.95800018311</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -3245,7 +3264,7 @@
         <v>255691.33528900149</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -3259,7 +3278,7 @@
         <v>252857.97393631941</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -3273,7 +3292,7 @@
         <v>245866.55733072761</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -3287,7 +3306,7 @@
         <v>235074.84858226779</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -3301,7 +3320,7 @@
         <v>228113.43232905859</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -3315,7 +3334,7 @@
         <v>222930.8960852623</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -3329,7 +3348,7 @@
         <v>220597.7905070782</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -3343,7 +3362,7 @@
         <v>217877.27820917961</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -3357,7 +3376,7 @@
         <v>214896.6987532377</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -3371,7 +3390,7 @@
         <v>203442.20025837421</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>122</v>
       </c>
@@ -3385,7 +3404,7 @@
         <v>202006.5550746918</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -3399,7 +3418,7 @@
         <v>198632.27138125899</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -3413,7 +3432,7 @@
         <v>196141.4429178834</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -3427,7 +3446,7 @@
         <v>187593.31615751979</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -3441,7 +3460,7 @@
         <v>184380.56339555979</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>127</v>
       </c>
@@ -3455,7 +3474,7 @@
         <v>166395.3893862367</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -3469,7 +3488,7 @@
         <v>160239.38199460509</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -3483,7 +3502,7 @@
         <v>156280.58438110349</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -3497,7 +3516,7 @@
         <v>132359.2346325815</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -3511,7 +3530,7 @@
         <v>129690.84248733521</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -3525,7 +3544,7 @@
         <v>129492.2663803101</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -3539,7 +3558,7 @@
         <v>121050.34556078909</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -3553,7 +3572,7 @@
         <v>118511.0257263184</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>135</v>
       </c>
@@ -3567,7 +3586,7 @@
         <v>110475.05377388</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>136</v>
       </c>
@@ -3581,7 +3600,7 @@
         <v>105837.3465720415</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -3595,7 +3614,7 @@
         <v>94620.464923262596</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -3609,7 +3628,7 @@
         <v>94249.10889351368</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -3623,7 +3642,7 @@
         <v>92515.577124774456</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -3637,7 +3656,7 @@
         <v>86624.931999206543</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -3651,7 +3670,7 @@
         <v>85720.225170135498</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -3665,7 +3684,7 @@
         <v>85690.280828952789</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -3679,7 +3698,7 @@
         <v>84689.651889443398</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -3693,7 +3712,7 @@
         <v>81432.626819610596</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>145</v>
       </c>
@@ -3707,7 +3726,7 @@
         <v>79988.98092764616</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -3721,7 +3740,7 @@
         <v>72226.560204982758</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -3735,7 +3754,7 @@
         <v>71174.347816467285</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -3749,7 +3768,7 @@
         <v>69649.549610137939</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -3763,7 +3782,7 @@
         <v>69379.951879501343</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -3777,21 +3796,21 @@
         <v>68121.804987668991</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B149">
-        <v>0</v>
-      </c>
-      <c r="C149">
+      <c r="B149" s="2">
+        <v>0</v>
+      </c>
+      <c r="C149" s="2">
         <v>40317.89103525877</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="2">
         <v>67893.702231734991</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -3805,7 +3824,7 @@
         <v>64853.909820556641</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -3819,7 +3838,7 @@
         <v>49690.838851928711</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>154</v>
       </c>
@@ -3833,7 +3852,7 @@
         <v>43260</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>155</v>
       </c>
@@ -3847,7 +3866,7 @@
         <v>42833.564056396477</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>156</v>
       </c>
@@ -3861,7 +3880,7 @@
         <v>38893.481977939613</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>157</v>
       </c>
@@ -3875,7 +3894,7 @@
         <v>37186.069826006889</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -3889,7 +3908,7 @@
         <v>37031.299996167421</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>159</v>
       </c>
@@ -3903,7 +3922,7 @@
         <v>32184.194938659672</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>160</v>
       </c>
@@ -3917,7 +3936,7 @@
         <v>31098.547906637192</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -3930,8 +3949,20 @@
       <c r="D159">
         <v>29666.8088247776</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I159" t="s">
+        <v>387</v>
+      </c>
+      <c r="J159">
+        <v>2021</v>
+      </c>
+      <c r="K159">
+        <v>2022</v>
+      </c>
+      <c r="L159">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>162</v>
       </c>
@@ -3945,7 +3976,7 @@
         <v>29248.858856201168</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>163</v>
       </c>
@@ -3958,8 +3989,20 @@
       <c r="D161">
         <v>28204.83595657349</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="I161" t="s">
+        <v>428</v>
+      </c>
+      <c r="J161" s="8">
+        <v>0</v>
+      </c>
+      <c r="K161" s="8">
+        <v>12691.22996902466</v>
+      </c>
+      <c r="L161" s="8">
+        <v>202006.5550746918</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>164</v>
       </c>
@@ -3973,7 +4016,7 @@
         <v>26934.785971641541</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>165</v>
       </c>
@@ -3987,7 +4030,7 @@
         <v>25003.872966766361</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>166</v>
       </c>
@@ -4001,7 +4044,7 @@
         <v>24427.766067028049</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>167</v>
       </c>
@@ -4015,7 +4058,7 @@
         <v>23890.47399425507</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -4029,7 +4072,7 @@
         <v>23795.639434814449</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>169</v>
       </c>
@@ -4043,7 +4086,7 @@
         <v>23561.601107597351</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>170</v>
       </c>
@@ -4057,7 +4100,7 @@
         <v>23463.710019439459</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>171</v>
       </c>
@@ -4071,7 +4114,7 @@
         <v>23437.95099973679</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>172</v>
       </c>
@@ -4085,7 +4128,7 @@
         <v>22863.583041191101</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>173</v>
       </c>
@@ -4099,7 +4142,7 @@
         <v>22807.48094928265</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>174</v>
       </c>
@@ -4113,7 +4156,7 @@
         <v>20076.60499894619</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>175</v>
       </c>
@@ -4127,7 +4170,7 @@
         <v>19752.504978179932</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>176</v>
       </c>
@@ -4141,7 +4184,7 @@
         <v>16440.993915557861</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>177</v>
       </c>
@@ -4155,7 +4198,7 @@
         <v>14715.89100283384</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>178</v>
       </c>
@@ -4169,7 +4212,7 @@
         <v>14161.620193481451</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>179</v>
       </c>
@@ -4183,7 +4226,7 @@
         <v>13924.64096832275</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>180</v>
       </c>
@@ -4197,7 +4240,7 @@
         <v>13795.156014561649</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>181</v>
       </c>
@@ -4211,7 +4254,7 @@
         <v>13393.520967483521</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>182</v>
       </c>
@@ -4225,7 +4268,7 @@
         <v>12937.140891075131</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>183</v>
       </c>
@@ -4239,7 +4282,7 @@
         <v>12845.234872102739</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>184</v>
       </c>
@@ -4253,7 +4296,7 @@
         <v>12650.27902457118</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>185</v>
       </c>
@@ -4267,7 +4310,7 @@
         <v>11548.97490978241</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>186</v>
       </c>
@@ -4281,7 +4324,7 @@
         <v>10637.91201800108</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>187</v>
       </c>
@@ -4295,7 +4338,7 @@
         <v>10076.63695907593</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>188</v>
       </c>
@@ -4309,7 +4352,7 @@
         <v>8208.2189792096615</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>189</v>
       </c>
@@ -4323,7 +4366,7 @@
         <v>7261.5389823913574</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>190</v>
       </c>
@@ -4337,7 +4380,7 @@
         <v>7245.0519751310349</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>191</v>
       </c>
@@ -4351,7 +4394,7 @@
         <v>7113.2351137399673</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>192</v>
       </c>
@@ -4365,7 +4408,7 @@
         <v>6400.637978553772</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>193</v>
       </c>
@@ -4379,7 +4422,7 @@
         <v>6098.4000849723816</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>194</v>
       </c>
@@ -4393,7 +4436,7 @@
         <v>5923.5000762939453</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>195</v>
       </c>
@@ -4407,7 +4450,7 @@
         <v>5720.8800659179688</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>196</v>
       </c>
@@ -4421,7 +4464,7 @@
         <v>5268.8739805221558</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>197</v>
       </c>
@@ -4435,7 +4478,7 @@
         <v>4635.4830008745193</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>198</v>
       </c>
@@ -4449,7 +4492,7 @@
         <v>4553.9999847412109</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>199</v>
       </c>
@@ -4463,7 +4506,7 @@
         <v>4409.932019174099</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>200</v>
       </c>
@@ -4477,7 +4520,7 @@
         <v>4166.2280209362507</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>201</v>
       </c>
@@ -4491,7 +4534,7 @@
         <v>4077.4800355434422</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>202</v>
       </c>
@@ -4505,7 +4548,7 @@
         <v>3642.132991790771</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>203</v>
       </c>
@@ -4519,7 +4562,7 @@
         <v>3449.6190037727361</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>204</v>
       </c>
@@ -4533,7 +4576,7 @@
         <v>2865.0880424976349</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>205</v>
       </c>
@@ -4547,7 +4590,7 @@
         <v>2763.7450276017189</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>206</v>
       </c>
@@ -4561,7 +4604,7 @@
         <v>2744.904998421669</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>207</v>
       </c>
@@ -4575,7 +4618,7 @@
         <v>2438.068000793457</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>208</v>
       </c>
@@ -4589,7 +4632,7 @@
         <v>2249.861998558044</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>209</v>
       </c>
@@ -4603,7 +4646,7 @@
         <v>2147.470006942749</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>210</v>
       </c>
@@ -4617,7 +4660,7 @@
         <v>1904.1329928636551</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>211</v>
       </c>
@@ -4631,7 +4674,7 @@
         <v>1723.599751114845</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>212</v>
       </c>
@@ -4645,7 +4688,7 @@
         <v>1570.847011089325</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>213</v>
       </c>
@@ -4659,7 +4702,7 @@
         <v>1512.721004486084</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>214</v>
       </c>
@@ -4673,7 +4716,7 @@
         <v>1437.9410033226011</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>215</v>
       </c>
@@ -4687,7 +4730,7 @@
         <v>1434.89600944519</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>216</v>
       </c>
@@ -4701,7 +4744,7 @@
         <v>1243.3979977369311</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>217</v>
       </c>
@@ -4715,7 +4758,7 @@
         <v>1222.4830055236821</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>218</v>
       </c>
@@ -4729,7 +4772,7 @@
         <v>1073.767007708549</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>219</v>
       </c>
@@ -4743,7 +4786,7 @@
         <v>1069.9360046386721</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>220</v>
       </c>
@@ -4757,7 +4800,7 @@
         <v>1027.855015277863</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>221</v>
       </c>
@@ -4771,7 +4814,7 @@
         <v>992.09201049804688</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>222</v>
       </c>
@@ -4785,7 +4828,7 @@
         <v>939.4279899597168</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>223</v>
       </c>
@@ -4799,7 +4842,7 @@
         <v>848.64800274372101</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>224</v>
       </c>
@@ -4813,7 +4856,7 @@
         <v>625.19399696588516</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>225</v>
       </c>
@@ -4827,7 +4870,7 @@
         <v>576.21800231933594</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>226</v>
       </c>
@@ -4841,7 +4884,7 @@
         <v>533.40000212192535</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>227</v>
       </c>
@@ -4855,7 +4898,7 @@
         <v>484.89099740982061</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>228</v>
       </c>
@@ -4869,7 +4912,7 @@
         <v>472.09000205993652</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>229</v>
       </c>
@@ -4883,7 +4926,7 @@
         <v>312.17500394582748</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>230</v>
       </c>
@@ -4897,7 +4940,7 @@
         <v>270.98300170898438</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>231</v>
       </c>
@@ -4911,7 +4954,7 @@
         <v>133.2159991264343</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>232</v>
       </c>
@@ -4925,7 +4968,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>233</v>
       </c>
@@ -4939,7 +4982,7 @@
         <v>115.2730007171631</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>234</v>
       </c>
@@ -4953,7 +4996,7 @@
         <v>107.3149968385696</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>235</v>
       </c>
@@ -4967,7 +5010,7 @@
         <v>89.171998262405396</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>236</v>
       </c>
@@ -4981,7 +5024,7 @@
         <v>85.310999393463135</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>237</v>
       </c>
@@ -4995,7 +5038,7 @@
         <v>71.107000350952148</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>238</v>
       </c>
@@ -5009,7 +5052,7 @@
         <v>66.215999603271484</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>239</v>
       </c>
@@ -5023,7 +5066,7 @@
         <v>61.160000562667847</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>240</v>
       </c>
@@ -5037,7 +5080,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>241</v>
       </c>
@@ -5051,7 +5094,7 @@
         <v>55.270999580621719</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>242</v>
       </c>
@@ -5065,7 +5108,7 @@
         <v>50.73799991607666</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>243</v>
       </c>
@@ -5079,7 +5122,7 @@
         <v>45.387999534606926</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>244</v>
       </c>
@@ -5093,7 +5136,7 @@
         <v>42.51400089263916</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>245</v>
       </c>
@@ -5107,7 +5150,7 @@
         <v>32.670001029968262</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>246</v>
       </c>
@@ -5121,7 +5164,7 @@
         <v>23.760000228881839</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>247</v>
       </c>
@@ -5135,7 +5178,7 @@
         <v>21.300000667572021</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>248</v>
       </c>
@@ -5149,7 +5192,7 @@
         <v>20.180000305175781</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>249</v>
       </c>
@@ -5163,7 +5206,7 @@
         <v>19.80000039935112</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>250</v>
       </c>
@@ -5177,7 +5220,7 @@
         <v>19.470000475645069</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>251</v>
       </c>
@@ -5191,7 +5234,7 @@
         <v>18.232000350952148</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>252</v>
       </c>
@@ -5205,7 +5248,7 @@
         <v>14.52000045776367</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>253</v>
       </c>
@@ -5219,7 +5262,7 @@
         <v>10.40600001811981</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>254</v>
       </c>
@@ -5233,7 +5276,7 @@
         <v>9.8999996185302734</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>255</v>
       </c>
@@ -5247,7 +5290,7 @@
         <v>8.5030002593994141</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>256</v>
       </c>
@@ -5261,7 +5304,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>257</v>
       </c>
@@ -5275,7 +5318,7 @@
         <v>7.9520001411437988</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>258</v>
       </c>
@@ -5289,7 +5332,7 @@
         <v>7.9200000762939453</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>259</v>
       </c>
@@ -5303,7 +5346,7 @@
         <v>7.3829998970031738</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>260</v>
       </c>
@@ -5317,7 +5360,7 @@
         <v>7.2740001678466797</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>261</v>
       </c>
@@ -5331,7 +5374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>262</v>
       </c>
@@ -5345,7 +5388,7 @@
         <v>4.2900001704692841</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>263</v>
       </c>
@@ -5359,7 +5402,7 @@
         <v>4.2369999885559082</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>264</v>
       </c>
@@ -5373,7 +5416,7 @@
         <v>4.2199999690055847</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>265</v>
       </c>
@@ -5387,7 +5430,7 @@
         <v>3.630000084638596</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>266</v>
       </c>
@@ -5401,7 +5444,7 @@
         <v>3.5199999809265141</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>267</v>
       </c>
@@ -5415,7 +5458,7 @@
         <v>3.5199999809265141</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>268</v>
       </c>
@@ -5429,7 +5472,7 @@
         <v>3.3000000715255742</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>269</v>
       </c>
@@ -5443,7 +5486,7 @@
         <v>3.2999999523162842</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>270</v>
       </c>
@@ -5457,7 +5500,7 @@
         <v>3.2999999523162842</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>271</v>
       </c>
@@ -5471,7 +5514,7 @@
         <v>3.1679999828338619</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>272</v>
       </c>
@@ -5485,7 +5528,7 @@
         <v>1.9800000190734861</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>273</v>
       </c>
@@ -5499,7 +5542,7 @@
         <v>1.200000047683716</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>274</v>
       </c>
@@ -5513,7 +5556,7 @@
         <v>1.1360000371932979</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>275</v>
       </c>
@@ -5527,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>276</v>
       </c>
@@ -5541,7 +5584,7 @@
         <v>0.94599997997283936</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>277</v>
       </c>
@@ -5555,7 +5598,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>278</v>
       </c>
@@ -5569,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>279</v>
       </c>
@@ -5583,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>280</v>
       </c>
@@ -5597,7 +5640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>281</v>
       </c>
@@ -5611,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>282</v>
       </c>
@@ -5625,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>283</v>
       </c>
@@ -5639,7 +5682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>284</v>
       </c>
@@ -5653,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>285</v>
       </c>
@@ -5667,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>286</v>
       </c>
@@ -5681,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>287</v>
       </c>
@@ -5695,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>288</v>
       </c>
@@ -5709,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>289</v>
       </c>
@@ -5723,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>290</v>
       </c>
@@ -5737,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>291</v>
       </c>
@@ -5751,7 +5794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>292</v>
       </c>
@@ -5765,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>293</v>
       </c>
@@ -5779,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>294</v>
       </c>
@@ -5793,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>295</v>
       </c>
@@ -5807,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>296</v>
       </c>
@@ -5821,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>297</v>
       </c>
@@ -5835,7 +5878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>298</v>
       </c>
@@ -5849,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>299</v>
       </c>
@@ -5863,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>300</v>
       </c>
@@ -5877,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>301</v>
       </c>
@@ -5891,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>302</v>
       </c>
@@ -5905,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>303</v>
       </c>
@@ -5919,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>304</v>
       </c>
@@ -5933,7 +5976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>305</v>
       </c>
@@ -5947,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>306</v>
       </c>
@@ -5961,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>307</v>
       </c>
@@ -5975,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>308</v>
       </c>
@@ -5989,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>309</v>
       </c>
@@ -6003,7 +6046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>310</v>
       </c>
@@ -6017,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>311</v>
       </c>
@@ -6031,7 +6074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>312</v>
       </c>
@@ -6045,7 +6088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>313</v>
       </c>
@@ -6059,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>314</v>
       </c>
@@ -6073,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>315</v>
       </c>
@@ -6087,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>316</v>
       </c>
@@ -6101,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>317</v>
       </c>
@@ -6115,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>318</v>
       </c>
@@ -6129,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>319</v>
       </c>
@@ -6143,7 +6186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>320</v>
       </c>
@@ -6157,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>321</v>
       </c>
@@ -6171,7 +6214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>322</v>
       </c>
@@ -6185,7 +6228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>323</v>
       </c>
@@ -6199,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>324</v>
       </c>
@@ -6213,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>325</v>
       </c>
@@ -6227,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>326</v>
       </c>
@@ -6241,7 +6284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>327</v>
       </c>
@@ -6255,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>328</v>
       </c>
@@ -6269,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>329</v>
       </c>
@@ -6283,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>330</v>
       </c>
@@ -6297,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>331</v>
       </c>
@@ -6311,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>332</v>
       </c>
@@ -6325,7 +6368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>333</v>
       </c>
@@ -6339,7 +6382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>334</v>
       </c>
@@ -6353,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>335</v>
       </c>
@@ -6367,7 +6410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>336</v>
       </c>
@@ -6381,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>337</v>
       </c>
@@ -6395,7 +6438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>338</v>
       </c>
@@ -6409,7 +6452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>339</v>
       </c>
@@ -6423,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>340</v>
       </c>
@@ -6437,7 +6480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>341</v>
       </c>
@@ -6451,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>342</v>
       </c>
@@ -6465,7 +6508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>343</v>
       </c>
@@ -6479,7 +6522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>344</v>
       </c>
@@ -6493,7 +6536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>345</v>
       </c>
@@ -6507,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>346</v>
       </c>
@@ -6521,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>347</v>
       </c>
@@ -6535,7 +6578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>348</v>
       </c>
@@ -6549,7 +6592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>349</v>
       </c>
@@ -6563,7 +6606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>350</v>
       </c>
@@ -6577,7 +6620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>351</v>
       </c>
@@ -6591,7 +6634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>352</v>
       </c>
@@ -6605,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>353</v>
       </c>
@@ -6619,7 +6662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>354</v>
       </c>
@@ -6633,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>355</v>
       </c>
@@ -6647,7 +6690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>356</v>
       </c>
@@ -6661,7 +6704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>357</v>
       </c>
@@ -6675,7 +6718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>358</v>
       </c>
@@ -6689,7 +6732,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>359</v>
       </c>
@@ -6703,7 +6746,7 @@
         <v>-10.560000419616699</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>360</v>
       </c>
@@ -6717,7 +6760,7 @@
         <v>-46.199999332427979</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>361</v>
       </c>
@@ -6735,127 +6778,57 @@
   <autoFilter ref="A1:D359" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="c_sku_Birra Moretti Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Birra Moretti Btl 500 Ml single_Volume"/>
-        <filter val="c_sku_Birra Moretti Btl 660 Ml single_Volume"/>
-        <filter val="c_sku_Birra Moretti Btl Estimated Weight single_Volume"/>
-        <filter val="c_sku_Birra Moretti Can 330 Ml single_Volume"/>
-        <filter val="c_sku_Birra Moretti Can 440 Ml single_Volume"/>
-        <filter val="c_sku_Birra Moretti Grani Antichi Btl 750 Ml single_Volume"/>
-        <filter val="c_sku_Birra Moretti Keg 2 L single_Volume"/>
-        <filter val="c_sku_Birra Moretti Keg 8 L single_Volume"/>
-        <filter val="c_sku_Birra Moretti Siciliana Btl 500 Ml single_Volume"/>
-        <filter val="c_sku_Birra Moretti Toscana Btl 500 Ml single_Volume"/>
-        <filter val="c_sku_Birra Moretti Zero Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Budweiser Aluminium Bottle 473 Ml single_Volume"/>
-        <filter val="c_sku_Budweiser Btl 300 Ml single_Volume"/>
-        <filter val="c_sku_Budweiser Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Budweiser Btl 500 Ml single_Volume"/>
-        <filter val="c_sku_Budweiser Btl 660 Ml single_Volume"/>
-        <filter val="c_sku_Budweiser Btl Estimated Weight single_Volume"/>
-        <filter val="c_sku_Budweiser Budvar B Strong Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Budweiser Budvar Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Budweiser Budvar Btl 500 Ml single_Volume"/>
-        <filter val="c_sku_Budweiser Budvar Can 500 Ml single_Volume"/>
-        <filter val="c_sku_Budweiser Budvar Dark Btl 500 Ml single_Volume"/>
-        <filter val="c_sku_Budweiser Budvar Keg 5 L single_Volume"/>
-        <filter val="c_sku_Budweiser Budvar Nealko Btl 500 Ml single_Volume"/>
-        <filter val="c_sku_Budweiser Budvar Reserve Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Budweiser Can 440 Ml single_Volume"/>
-        <filter val="c_sku_Budweiser Can 473 Ml single_Volume"/>
-        <filter val="c_sku_Budweiser Can 500 Ml single_Volume"/>
-        <filter val="c_sku_Budweiser Can 568 Ml single_Volume"/>
-        <filter val="c_sku_Budweiser Can Estimated Weight single_Volume"/>
-        <filter val="c_sku_Budweiser Keg 5 L single_Volume"/>
-        <filter val="c_sku_Budweiser Keg 5000 Ml single_Volume"/>
-        <filter val="c_sku_Budweiser Keg 6 L single_Volume"/>
-        <filter val="c_sku_Budweiser Prohibition Brew Alcohol Free Can 330 Ml single_Volume"/>
-        <filter val="c_sku_Corona Aluminium Bottle 473 Ml single_Volume"/>
-        <filter val="c_sku_Corona Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Corona Btl 355 Ml single_Volume"/>
-        <filter val="c_sku_Corona Btl 620 Ml single_Volume"/>
-        <filter val="c_sku_Corona Btl 710 Ml single_Volume"/>
-        <filter val="c_sku_Corona Can 440 Ml single_Volume"/>
-        <filter val="c_sku_Corona Keg 6 L single_Volume"/>
-        <filter val="c_sku_Cruzcampo Btl 660 Ml single_Volume"/>
-        <filter val="c_sku_Cruzcampo Especial Keg 2 L single_Volume"/>
-        <filter val="c_sku_Estrella Damm Barcelona Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Estrella Damm Barcelona Btl 500 Ml single_Volume"/>
-        <filter val="c_sku_Estrella Damm Barcelona Btl 660 Ml single_Volume"/>
-        <filter val="c_sku_Estrella Damm Barcelona Can 440 Ml single_Volume"/>
-        <filter val="c_sku_Estrella Damm Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Estrella Damm Cerveza De Navidad Btl 660 Ml single_Volume"/>
-        <filter val="c_sku_Estrella Damm Daura/gluten Free Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Estrella Damm Inedit Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Estrella Damm Inedit Btl 750 Ml single_Volume"/>
-        <filter val="c_sku_Estrella Galicia 0.0% Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Estrella Galicia Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Estrella Galicia Btl 660 Ml single_Volume"/>
-        <filter val="c_sku_Heineken (5%) Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Heineken (5%) Btl 500 Ml single_Volume"/>
-        <filter val="c_sku_Heineken (5%) Btl 650 Ml single_Volume"/>
-        <filter val="c_sku_Heineken (5%) Btl 8 L single_Volume"/>
-        <filter val="c_sku_Heineken (5%) Btl Estimated Weight single_Volume"/>
-        <filter val="c_sku_Heineken (5%) Can 2 L single_Volume"/>
-        <filter val="c_sku_Heineken (5%) Can 330 Ml single_Volume"/>
-        <filter val="c_sku_Heineken (5%) Can 440 Ml single_Volume"/>
-        <filter val="c_sku_Heineken (5%) Can 500 Ml single_Volume"/>
-        <filter val="c_sku_Heineken (5%) Can 568 Ml single_Volume"/>
-        <filter val="c_sku_Heineken (5%) Keg 5 L single_Volume"/>
-        <filter val="c_sku_Heineken (5%) Plastic Bottle 400 Ml single_Volume"/>
-        <filter val="c_sku_Heineken 0.0 Alcohol Free Can 330 Ml single_Volume"/>
-        <filter val="c_sku_Heineken Cf Btl 275 Ml single_Volume"/>
-        <filter val="c_sku_Heineken Silver Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Heineken Silver Btl 650 Ml single_Volume"/>
-        <filter val="c_sku_Heineken Silver Can 330 Ml single_Volume"/>
-        <filter val="c_sku_Heineken Silver Keg 8 L single_Volume"/>
-        <filter val="c_sku_Madri Exceptional Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Madri Exceptional Btl 660 Ml single_Volume"/>
         <filter val="c_sku_Peroni Gran Riserva Btl 330 Ml single_Volume"/>
         <filter val="c_sku_Peroni Gran Riserva Btl 500 Ml single_Volume"/>
         <filter val="c_sku_Peroni Gran Riserva Doppio Malto Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Gran Riserva Doppio Malto Btl 500 Ml 12 pack_Volume"/>
         <filter val="c_sku_Peroni Gran Riserva Doppio Malto Btl 500 Ml single_Volume"/>
         <filter val="c_sku_Peroni Gran Riserva Puro Malto Btl 500 Ml single_Volume"/>
         <filter val="c_sku_Peroni Gran Riserva Rossa Btl 500 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Libera 0.0% Btl 330 Ml 12 pack_Volume"/>
+        <filter val="c_sku_Peroni Libera 0.0% Btl 330 Ml 24 pack_Volume"/>
+        <filter val="c_sku_Peroni Libera 0.0% Btl 330 Ml 4 pack_Volume"/>
+        <filter val="c_sku_Peroni Libera 0.0% Btl 330 Ml 6 pack_Volume"/>
         <filter val="c_sku_Peroni Libera 0.0% Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Libera 0.0% Can 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro 0.0% Btl 330 Ml 12 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro 0.0% Btl 330 Ml 4 pack_Volume"/>
         <filter val="c_sku_Peroni Nastro Azzurro 0.0% Btl 330 Ml single_Volume"/>
         <filter val="c_sku_Peroni Nastro Azzurro 0.0% Can 330 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 250 Ml 4 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 250 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 10 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 12 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 18 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 20 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 24 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 4 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 6 pack_Volume"/>
         <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 500 Ml 2 pack_Volume"/>
         <filter val="c_sku_Peroni Nastro Azzurro Btl 500 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 620 Ml 12 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 620 Ml 3 pack_Volume"/>
         <filter val="c_sku_Peroni Nastro Azzurro Btl 620 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Btl 660 Ml 3 pack_Volume"/>
         <filter val="c_sku_Peroni Nastro Azzurro Btl 660 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Can 330 Ml 10 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Can 330 Ml 6 pack_Volume"/>
         <filter val="c_sku_Peroni Nastro Azzurro Can 330 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Can 440 Ml 4 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Can 500 Ml 4 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Stile Capri Btl 330 Ml 10 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro Stile Capri Btl 330 Ml 3 pack_Volume"/>
         <filter val="c_sku_Peroni Nastro Azzurro Stile Capri Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro/gluten Free Btl 330 Ml 12 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro/gluten Free Btl 330 Ml 24 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro/gluten Free Btl 330 Ml 4 pack_Volume"/>
+        <filter val="c_sku_Peroni Nastro Azzurro/gluten Free Btl 330 Ml 6 pack_Volume"/>
         <filter val="c_sku_Peroni Nastro Azzurro/gluten Free Btl 330 Ml single_Volume"/>
         <filter val="c_sku_Peroni Nastro Azzurro/gluten Free Btl 620 Ml single_Volume"/>
+        <filter val="c_sku_Peroni Red Btl 330 Ml 24 pack_Volume"/>
         <filter val="c_sku_Peroni Red Btl 330 Ml single_Volume"/>
         <filter val="c_sku_Peroni Red Can 500 Ml single_Volume"/>
-        <filter val="c_sku_San Miguel 0.0% Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_San Miguel 0.0% Can 330 Ml single_Volume"/>
-        <filter val="c_sku_San Miguel Btl 1 L single_Volume"/>
-        <filter val="c_sku_San Miguel Btl 275 Ml single_Volume"/>
-        <filter val="c_sku_San Miguel Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_San Miguel Btl 660 Ml single_Volume"/>
-        <filter val="c_sku_San Miguel Can 440 Ml single_Volume"/>
-        <filter val="c_sku_San Miguel Can 500 Ml single_Volume"/>
-        <filter val="c_sku_San Miguel Can 568 Ml single_Volume"/>
-        <filter val="c_sku_San Miguel Fresca Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Stella Artois (4%) Can 440 Ml single_Volume"/>
-        <filter val="c_sku_Stella Artois (4%) Can 500 Ml single_Volume"/>
-        <filter val="c_sku_Stella Artois Btl 284 Ml single_Volume"/>
-        <filter val="c_sku_Stella Artois Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Stella Artois Btl 660 Ml single_Volume"/>
-        <filter val="c_sku_Stella Artois Btl 750 Ml single_Volume"/>
-        <filter val="c_sku_Stella Artois Btl Estimated Weight single_Volume"/>
-        <filter val="c_sku_Stella Artois Can 330 Ml single_Volume"/>
-        <filter val="c_sku_Stella Artois Can 440 Ml single_Volume"/>
-        <filter val="c_sku_Stella Artois Can 500 Ml single_Volume"/>
-        <filter val="c_sku_Stella Artois Can 568 Ml single_Volume"/>
-        <filter val="c_sku_Stella Artois Keg 6 L single_Volume"/>
-        <filter val="c_sku_Stella Artois Unfiltered Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Stella Artois Unfiltered Btl 620 Ml single_Volume"/>
-        <filter val="c_sku_Stella Artois Unfiltered Btl 660 Ml single_Volume"/>
-        <filter val="c_sku_Stella Artois Unfiltered Keg 6 L single_Volume"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6871,16 +6844,16 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.54296875" customWidth="1"/>
-    <col min="7" max="7" width="53.1796875" customWidth="1"/>
-    <col min="8" max="8" width="40.7265625" customWidth="1"/>
-    <col min="9" max="9" width="43.6328125" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="57.5546875" customWidth="1"/>
+    <col min="7" max="7" width="53.21875" customWidth="1"/>
+    <col min="8" max="8" width="40.77734375" customWidth="1"/>
+    <col min="9" max="9" width="43.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>362</v>
       </c>
@@ -6906,7 +6879,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -6929,7 +6902,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -6952,7 +6925,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -6975,7 +6948,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -6992,7 +6965,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -7009,7 +6982,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -7026,7 +6999,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -7043,7 +7016,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -7060,7 +7033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -7077,7 +7050,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -7094,7 +7067,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -7111,7 +7084,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -7128,7 +7101,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -7145,7 +7118,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -7162,7 +7135,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -7179,7 +7152,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>90</v>
       </c>
@@ -7196,7 +7169,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -7213,7 +7186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>103</v>
       </c>
@@ -7230,7 +7203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>105</v>
       </c>
@@ -7247,17 +7220,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>363</v>
       </c>
@@ -7274,7 +7247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -7291,7 +7264,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -7308,7 +7281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -7325,7 +7298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -7342,7 +7315,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -7359,7 +7332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -7376,7 +7349,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -7393,7 +7366,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -7410,7 +7383,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -7427,7 +7400,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -7444,7 +7417,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -7461,7 +7434,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -7478,7 +7451,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -7495,7 +7468,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -7512,7 +7485,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -7529,7 +7502,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -7546,7 +7519,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -7563,7 +7536,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>56</v>
       </c>
@@ -7580,7 +7553,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -7597,7 +7570,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -7614,7 +7587,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -7631,7 +7604,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -7648,7 +7621,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -7665,7 +7638,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>72</v>
       </c>
@@ -7682,7 +7655,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>76</v>
       </c>
@@ -7699,7 +7672,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -7716,7 +7689,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -7733,7 +7706,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -7750,17 +7723,17 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G52" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G53" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
         <v>364</v>
       </c>
@@ -7777,7 +7750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>73</v>
       </c>
@@ -7794,7 +7767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -7811,7 +7784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>78</v>
       </c>
@@ -7828,7 +7801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -7845,7 +7818,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -7862,7 +7835,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>94</v>
       </c>
@@ -7879,7 +7852,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>98</v>
       </c>
@@ -7896,7 +7869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>100</v>
       </c>
@@ -7913,7 +7886,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>108</v>
       </c>
@@ -7930,7 +7903,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>114</v>
       </c>
@@ -7947,7 +7920,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>127</v>
       </c>
@@ -7964,17 +7937,17 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G66" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G67" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
         <v>365</v>
       </c>
@@ -7991,7 +7964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -8008,7 +7981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -8025,7 +7998,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -8042,7 +8015,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -8059,7 +8032,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>26</v>
       </c>
@@ -8076,7 +8049,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>44</v>
       </c>
@@ -8093,7 +8066,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>46</v>
       </c>
@@ -8110,7 +8083,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -8127,7 +8100,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>49</v>
       </c>
@@ -8144,7 +8117,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>50</v>
       </c>
@@ -8161,7 +8134,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>58</v>
       </c>
@@ -8178,7 +8151,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>68</v>
       </c>
@@ -8195,7 +8168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>77</v>
       </c>
@@ -8212,7 +8185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -8229,7 +8202,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>104</v>
       </c>
@@ -8246,17 +8219,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G84" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G85" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A86" s="5" t="s">
         <v>366</v>
       </c>
@@ -8273,7 +8246,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -8290,7 +8263,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -8307,7 +8280,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>27</v>
       </c>
@@ -8324,7 +8297,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>28</v>
       </c>
@@ -8338,7 +8311,7 @@
         <v>5878216.1116979718</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>30</v>
       </c>
@@ -8352,7 +8325,7 @@
         <v>5340665.4770812988</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>36</v>
       </c>
@@ -8366,7 +8339,7 @@
         <v>4532821.2478837967</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>37</v>
       </c>
@@ -8380,7 +8353,7 @@
         <v>4467090.9366878867</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>54</v>
       </c>
@@ -8394,7 +8367,7 @@
         <v>2074676.037470818</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>66</v>
       </c>
@@ -8408,7 +8381,7 @@
         <v>1185032.505872726</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>67</v>
       </c>
@@ -8422,7 +8395,7 @@
         <v>1175199.8911437991</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>80</v>
       </c>
@@ -8436,7 +8409,7 @@
         <v>726013.85114991665</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>86</v>
       </c>
@@ -8450,7 +8423,7 @@
         <v>598789.01707708836</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>89</v>
       </c>
@@ -8464,7 +8437,7 @@
         <v>532673.87409162521</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>95</v>
       </c>
@@ -8478,7 +8451,7 @@
         <v>422291.95117592812</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>106</v>
       </c>
@@ -8492,7 +8465,7 @@
         <v>329732.35342788702</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A104" s="5" t="s">
         <v>367</v>
       </c>
@@ -8506,7 +8479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -8520,7 +8493,7 @@
         <v>17452842.474384312</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>25</v>
       </c>
@@ -8534,7 +8507,7 @@
         <v>6096517.5928940773</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>47</v>
       </c>
@@ -8548,7 +8521,7 @@
         <v>2942096.768611908</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>55</v>
       </c>
@@ -8562,7 +8535,7 @@
         <v>1916634.4417220349</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>63</v>
       </c>
@@ -8576,7 +8549,7 @@
         <v>1347930.7797966001</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>96</v>
       </c>
@@ -8590,7 +8563,7 @@
         <v>416766.37711501122</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>148</v>
       </c>
@@ -8604,7 +8577,7 @@
         <v>69649.549610137939</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A114" s="5" t="s">
         <v>368</v>
       </c>
@@ -8618,7 +8591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>60</v>
       </c>
@@ -8632,7 +8605,7 @@
         <v>1587152.5007829671</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>64</v>
       </c>
@@ -8646,7 +8619,7 @@
         <v>1292023.522026062</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>126</v>
       </c>
@@ -8660,7 +8633,7 @@
         <v>184380.56339555979</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -8674,7 +8647,7 @@
         <v>118511.0257263184</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A121" s="6" t="s">
         <v>369</v>
       </c>
@@ -8688,7 +8661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>53</v>
       </c>
@@ -8702,7 +8675,7 @@
         <v>2075991.335204124</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>67</v>
       </c>
@@ -8716,7 +8689,7 @@
         <v>1175199.8911437991</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>69</v>
       </c>
@@ -8730,7 +8703,7 @@
         <v>1099550.015556335</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>72</v>
       </c>
@@ -8744,7 +8717,7 @@
         <v>1031059.812595367</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>75</v>
       </c>
@@ -8758,7 +8731,7 @@
         <v>945146.6638250351</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>85</v>
       </c>
@@ -8772,7 +8745,7 @@
         <v>634294.781686306</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>87</v>
       </c>
@@ -8786,7 +8759,7 @@
         <v>578574.20780277252</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>122</v>
       </c>
@@ -8800,7 +8773,7 @@
         <v>202006.5550746918</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>123</v>
       </c>
@@ -8828,24 +8801,24 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.1796875" customWidth="1"/>
-    <col min="2" max="3" width="8.7265625" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="51.21875" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="3.6328125" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" customWidth="1"/>
-    <col min="8" max="8" width="62.26953125" customWidth="1"/>
-    <col min="9" max="10" width="44.90625" customWidth="1"/>
-    <col min="11" max="11" width="42.08984375" customWidth="1"/>
-    <col min="12" max="12" width="40.453125" customWidth="1"/>
-    <col min="13" max="13" width="25.7265625" customWidth="1"/>
-    <col min="14" max="14" width="23.26953125" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" customWidth="1"/>
+    <col min="8" max="8" width="62.21875" customWidth="1"/>
+    <col min="9" max="10" width="44.88671875" customWidth="1"/>
+    <col min="11" max="11" width="42.109375" customWidth="1"/>
+    <col min="12" max="12" width="40.44140625" customWidth="1"/>
+    <col min="13" max="13" width="25.77734375" customWidth="1"/>
+    <col min="14" max="14" width="23.21875" customWidth="1"/>
     <col min="15" max="15" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8889,7 +8862,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -8921,7 +8894,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -8953,7 +8926,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -8985,7 +8958,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -9017,7 +8990,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -9049,7 +9022,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -9081,7 +9054,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -9113,7 +9086,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -9145,7 +9118,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -9177,7 +9150,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>127</v>
       </c>
@@ -9209,7 +9182,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -9241,7 +9214,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -9273,7 +9246,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -9305,7 +9278,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>151</v>
       </c>
@@ -9337,7 +9310,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>56</v>
       </c>

--- a/nielsen_processing/result_transposed_impulse.xlsx
+++ b/nielsen_processing/result_transposed_impulse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abeurope-my.sharepoint.com/personal/mattias_mutso_externi_cz/Documents/Documents/AsahiUK_MMM/nielsen_processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="14_{50157A9B-C33A-46F4-AD77-774AAE3AC994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E445B995-02C4-41BD-BE14-356ED5091799}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="14_{50157A9B-C33A-46F4-AD77-774AAE3AC994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17FF4308-BE0F-41D6-899E-359E2F5B4987}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="30984" windowHeight="16944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="impulse" sheetId="1" r:id="rId1"/>
@@ -1320,7 +1320,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1404,7 +1404,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1713,8 +1713,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A214" sqref="A214"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1976,7 +1976,7 @@
         <v>7120992.3474137187</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>7119124.2448277473</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>6035558.6845397949</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>4764020.6969067454</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>4308772.892416954</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>4014875.6533540492</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>3423103.6741142268</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>2903109.3930103779</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>2074676.037470818</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>1916634.4417220349</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>56</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>1356025.6505455079</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>1347930.7797966001</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>1034052.3911871311</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>72</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>932907.50855284929</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>77</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>921912.79785513878</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>884824.06703948975</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>80</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>532673.87409162521</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>90</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>509071.56977510452</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>398644.88916873932</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>362678.99378323549</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>353255.75891113281</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>103</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>349899.78330782062</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>245866.55733072761</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>203442.20025837421</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>122</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>184380.56339555979</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>127</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>166395.3893862367</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>121050.34556078909</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>86624.931999206543</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>85720.225170135498</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>81432.626819610596</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>145</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>72226.560204982758</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>68121.804987668991</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>151</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>49690.838851928711</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>154</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>31098.547906637192</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>29248.858856201168</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>163</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>23795.639434814449</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>169</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>23561.601107597351</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>170</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>16440.993915557861</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>177</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>12937.140891075131</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>183</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>12650.27902457118</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>185</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>7245.0519751310349</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>191</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>4635.4830008745193</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>198</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>4077.4800355434422</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>202</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>2438.068000793457</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>208</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>1904.1329928636551</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>211</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>1570.847011089325</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>213</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>1434.89600944519</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>216</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>939.4279899597168</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>223</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>472.09000205993652</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>229</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>133.2159991264343</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>232</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>71.107000350952148</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>238</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>61.160000562667847</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>240</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>55.270999580621719</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>242</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>20.180000305175781</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>249</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>7.9520001411437988</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>258</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>0.94599997997283936</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>277</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>278</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>279</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>281</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>282</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>286</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>287</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>299</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>303</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>307</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>309</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>313</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>316</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>330</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>332</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>334</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>340</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>345</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>348</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>355</v>
       </c>
@@ -6778,57 +6778,30 @@
   <autoFilter ref="A1:D359" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="c_sku_Peroni Gran Riserva Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Gran Riserva Btl 500 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Gran Riserva Doppio Malto Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Gran Riserva Doppio Malto Btl 500 Ml 12 pack_Volume"/>
-        <filter val="c_sku_Peroni Gran Riserva Doppio Malto Btl 500 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Gran Riserva Puro Malto Btl 500 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Gran Riserva Rossa Btl 500 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Libera 0.0% Btl 330 Ml 12 pack_Volume"/>
-        <filter val="c_sku_Peroni Libera 0.0% Btl 330 Ml 24 pack_Volume"/>
-        <filter val="c_sku_Peroni Libera 0.0% Btl 330 Ml 4 pack_Volume"/>
-        <filter val="c_sku_Peroni Libera 0.0% Btl 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Peroni Libera 0.0% Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Libera 0.0% Can 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro 0.0% Btl 330 Ml 12 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro 0.0% Btl 330 Ml 4 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro 0.0% Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro 0.0% Can 330 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 250 Ml 4 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 250 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 10 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 12 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 18 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 20 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 24 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 4 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 500 Ml 2 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 500 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 620 Ml 12 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 620 Ml 3 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 620 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 660 Ml 3 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Btl 660 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Can 330 Ml 10 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Can 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Can 330 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Can 440 Ml 4 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Can 500 Ml 4 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Stile Capri Btl 330 Ml 10 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Stile Capri Btl 330 Ml 3 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro Stile Capri Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro/gluten Free Btl 330 Ml 12 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro/gluten Free Btl 330 Ml 24 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro/gluten Free Btl 330 Ml 4 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro/gluten Free Btl 330 Ml 6 pack_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro/gluten Free Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Nastro Azzurro/gluten Free Btl 620 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Red Btl 330 Ml 24 pack_Volume"/>
-        <filter val="c_sku_Peroni Red Btl 330 Ml single_Volume"/>
-        <filter val="c_sku_Peroni Red Can 500 Ml single_Volume"/>
+        <filter val="c_sku_Birra Moretti Btl 330 Ml 12 pack_Volume"/>
+        <filter val="c_sku_Birra Moretti Btl 330 Ml 18 pack_Volume"/>
+        <filter val="c_sku_Birra Moretti Btl 330 Ml 2 pack_Volume"/>
+        <filter val="c_sku_Birra Moretti Btl 330 Ml 24 pack_Volume"/>
+        <filter val="c_sku_Birra Moretti Btl 330 Ml 4 pack_Volume"/>
+        <filter val="c_sku_Birra Moretti Btl 330 Ml single_Volume"/>
+        <filter val="c_sku_Birra Moretti Btl 500 Ml 2 pack_Volume"/>
+        <filter val="c_sku_Birra Moretti Btl 500 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Birra Moretti Btl 500 Ml single_Volume"/>
+        <filter val="c_sku_Birra Moretti Btl 660 Ml single_Volume"/>
+        <filter val="c_sku_Birra Moretti Btl Estimated Weight single_Volume"/>
+        <filter val="c_sku_Birra Moretti Can 330 Ml 10 pack_Volume"/>
+        <filter val="c_sku_Birra Moretti Can 330 Ml 6 pack_Volume"/>
+        <filter val="c_sku_Birra Moretti Can 330 Ml single_Volume"/>
+        <filter val="c_sku_Birra Moretti Can 440 Ml 4 pack_Volume"/>
+        <filter val="c_sku_Birra Moretti Can 440 Ml single_Volume"/>
+        <filter val="c_sku_Birra Moretti Grani Antichi Btl 750 Ml single_Volume"/>
+        <filter val="c_sku_Birra Moretti Keg 2 L single_Volume"/>
+        <filter val="c_sku_Birra Moretti Keg 8 L single_Volume"/>
+        <filter val="c_sku_Birra Moretti Siciliana Btl 500 Ml single_Volume"/>
+        <filter val="c_sku_Birra Moretti Toscana Btl 500 Ml single_Volume"/>
+        <filter val="c_sku_Birra Moretti Zero Btl 330 Ml 3 pack_Volume"/>
+        <filter val="c_sku_Birra Moretti Zero Btl 330 Ml 4 pack_Volume"/>
+        <filter val="c_sku_Birra Moretti Zero Btl 330 Ml single_Volume"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6840,7 +6813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8E0846-0DBF-4F08-8819-3502ECC42DAE}">
   <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A116" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
